--- a/getTaobaoComment/评论.xlsx
+++ b/getTaobaoComment/评论.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whj\Desktop\pythonTest\code\awesome\getTaobaoComment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791DC53E-B254-4B70-8BCE-E3C8AB61EB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$113</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -208,12 +199,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -221,15 +212,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -275,23 +259,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -333,7 +309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +341,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +375,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,22 +550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -633,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -641,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -649,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -657,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -665,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -673,7 +610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -681,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -689,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -697,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -705,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -713,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -721,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -729,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -737,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -745,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -753,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -761,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -769,7 +706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -777,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -785,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -793,7 +730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -801,7 +738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -809,7 +746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -817,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -825,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -833,7 +770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -841,7 +778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -849,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -857,7 +794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -865,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -873,7 +810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -881,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -889,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -897,7 +834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -905,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -913,7 +850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -921,7 +858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -929,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -937,7 +874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -945,7 +882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -953,7 +890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -961,7 +898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -969,7 +906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -977,7 +914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -985,7 +922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -993,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1001,7 +938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1009,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1017,7 +954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1025,7 +962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1033,7 +970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1041,7 +978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1049,7 +986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1057,7 +994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1065,7 +1002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1073,7 +1010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1081,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1089,7 +1026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1097,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1105,7 +1042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1113,7 +1050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1121,7 +1058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1129,7 +1066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1137,7 +1074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1145,7 +1082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1153,7 +1090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1161,7 +1098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1169,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1177,7 +1114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1185,7 +1122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1193,7 +1130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1201,7 +1138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1209,7 +1146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1217,7 +1154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1225,7 +1162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1233,7 +1170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1241,7 +1178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1249,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1257,7 +1194,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1265,7 +1202,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1273,7 +1210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1281,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1289,7 +1226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1297,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1305,7 +1242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1313,7 +1250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1321,7 +1258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1329,7 +1266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1337,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1345,7 +1282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1353,7 +1290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1361,7 +1298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1369,7 +1306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1377,7 +1314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1385,7 +1322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1393,7 +1330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1401,7 +1338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1409,7 +1346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1417,7 +1354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1425,7 +1362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1433,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1441,7 +1378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1449,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1457,7 +1394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1465,7 +1402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1473,7 +1410,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1481,7 +1418,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1489,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1497,7 +1434,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1505,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -1513,7 +1450,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1522,72 +1459,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B113" xr:uid="{0E0EC1F2-7BF2-4287-9062-E06D3058B053}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="T恤版型简单大方，面料柔软舒适，粉色穿上很显皮肤白，很显年轻！"/>
-        <filter val="t恤穿着刚好合适，做工精细，质量很好，挺喜欢的。"/>
-        <filter val="T恤衫穿起来大小合适，质量不错，面料摸起来手感舒适柔软，穿起来比较透气还非常帅气，非常满意"/>
-        <filter val="t恤衫面料舒服，质量做工都不错，颜色也好看，老公很喜欢。"/>
-        <filter val="T恤收到了，面料舒适透气，尺码合适，粉色显年轻有活力，老公喜欢"/>
-        <filter val="t恤收到了，质量很不错，而且尺码合适，面料也很好"/>
-        <filter val="T恤收到了面料很柔软穿上很舒服很好看码数很正"/>
-        <filter val="T恤颜色很喜欢，质量做工都挺好，穿着舒服好看，不错"/>
-        <filter val="版型好看，颜色很正，穿着很合身也很舒适，物流也很快很满意"/>
-        <filter val="材质特性：透气性好 上身效果：修身帅气 尺码推荐：标准尺码 厚薄度：厚薄适中 面料品质：面料很好，上身舒适"/>
-        <filter val="穿过确实蛮舒服，料子也是我喜欢的，比较透气，不掉色可以放心购买"/>
-        <filter val="穿着很合身，值得购买，给赞。"/>
-        <filter val="大小合适，面料舒服。不掉色，上身好看"/>
-        <filter val="短袖很不错，面料柔软，穿上很舒服很凉快，颜色也比较清新，不错"/>
-        <filter val="短袖款式时尚潮流 料子舒适手感好 穿着修身显瘦 帅气 挺好亲值得购买"/>
-        <filter val="对象已经穿上了  尺码挺标准的  穿上也挺帅气  挺满意的"/>
-        <filter val="很有型，特别百搭，值得购买。"/>
-        <filter val="回到家洗了洗，也没有起褶子，是纯棉的"/>
-        <filter val="快递很快包装完好。客服服务态度很好"/>
-        <filter val="款式简单大方，颜色 挺好看的，，显肤色"/>
-        <filter val="老公穿上了 很帅很合适 夸我眼光好"/>
-        <filter val="码数很标准，穿着很舒服，下次还回来光顾的"/>
-        <filter val="面料很舒服，很满意的购物"/>
-        <filter val="面料摸着也很柔软，不会扎人皮肤，包装比较精致，都是独立包装，厚薄度：厚度也可以 尺码推荐：尺码刚刚好，做工很好没有多余的线头，洗后不会掉色不会缩水，质量很好。不比实体店差"/>
-        <filter val="面料品质好，上身效果还是不错的，喜欢的可以下手"/>
-        <filter val="面料柔软舒服透气性很好。尺码标准价格实惠值得购买"/>
-        <filter val="收到了  衣服上身效果不错   面料也可以   整体很舒适   厚薄刚好"/>
-        <filter val="收到了，摸起来手感柔软舒适，又透气，穿起来人显得非常的精神，值得拥有"/>
-        <filter val="收到质量很好，面料很舒服，穿上版型好"/>
-        <filter val="水洗了，不变形不起皱，非常满意哈！有需要还会再来光顾的"/>
-        <filter val="挺喜欢的款式，简单又耐看。 比店里买的便宜多了，质量好的话以后又来店里买。"/>
-        <filter val="透气，吸汗不粘身。非常舒服。码数正，颜色鲜艳非常好看"/>
-        <filter val="洗了后衣服也不变形，挺好的。又回购了一件"/>
-        <filter val="颜色好看，没有色差，洗过也没有掉色变型。质量真不错，很满意"/>
-        <filter val="衣服超级好，洗了也不起球也不掉色，老公夸奖这件衣服买的好值。"/>
-        <filter val="衣服很快就到了  洗了之后没有褪色  也不变形  质量挺不错的"/>
-        <filter val="衣服面料很好，做工精细没有线头，给老公买的老公很喜欢。上身效果特别棒。"/>
-        <filter val="衣服面料很舒服，又很透气，老公穿上特别帅气，他也特别喜欢，觉得买的很值，是正品呢。"/>
-        <filter val="衣服是纯棉材质，今年特别流行polo衫，这是我买的最满意的一件，透气性好，吸汗，尺码也更准，很喜欢"/>
-        <filter val="衣服收到了 穿着合身 质量很不错"/>
-        <filter val="衣服收到了，面料很舒服 料子也不厚 夏天穿很凉快"/>
-        <filter val="衣服收到了，颜色很粉嫩，很帅气，上身很好看"/>
-        <filter val="衣服收到了，质量很好，料子摸着软软的，穿着很舒服"/>
-        <filter val="衣服收到了很满意面料舒服质量好版型好看！推荐购买"/>
-        <filter val="衣服洗了不掉色不缩水，做工精细，值得购买还会回购的"/>
-        <filter val="衣服真的挺不错的，粉色特别显白，款式简单大方，很满意"/>
-        <filter val="衣服质量还不错，穿上很舒适，挺透气。"/>
-        <filter val="衣服质量很好，款式很好看，穿着很舒服。"/>
-        <filter val="衣服质量很好，款式休闲大方，穿着上身效果也很好，很帅气，五星好评。"/>
-        <filter val="衣服质量很好，面料柔软舒适，穿着很舒服，颜色也很喜欢"/>
-        <filter val="这个颜色好好看，很衬肤色，穿着舒服。老公穿着好看"/>
-        <filter val="真心不错，老公很喜欢，穿上特别显瘦。"/>
-        <filter val="整体评价：不错 材质特性：吸汗 上身效果：显瘦显年轻 尺码推荐：我们穿尺码标准 厚薄度：适中  给老爸买的 他很喜欢 值得购买"/>
-        <filter val="质量不错，有弹性，穿上很舒服。"/>
-        <filter val="质量好，穿上舒服，"/>
-        <filter val="质量很不错，码数标准，穿上帅气好看阳光，面料厚度适中，穿着很舒服透气吸汗，满意"/>
-        <filter val="质量很好，版型好看，特别喜欢，满意。"/>
-        <filter val="质量确实不错，怎么洗都不变形，不起球，下次还来买。"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>